--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17032,12 +17032,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,12 +17080,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17032,12 +17032,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,12 +17080,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17032,12 +17032,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,12 +17080,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -17032,12 +17032,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,12 +17080,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17080,12 +17080,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,12 +17128,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -17080,12 +17080,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -17095,7 +17095,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,12 +17128,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>27/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17128,12 +17128,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15607,11 +15607,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17128,12 +17128,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,12 +17224,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,12 +17224,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/06/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Frutícola Viconto S.A.</t>
+          <t>Baron Philippe de Rothschild Maipo Chile SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15655,11 +15655,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,12 +17224,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17224,12 +17224,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17224,12 +17224,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -19207,7 +19207,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F393" t="n">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -17224,12 +17224,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -11863,7 +11863,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F240" t="n">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2022</t>
+          <t>02/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10916,12 +10916,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12020,12 +12020,12 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -17287,7 +17287,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,12 +17368,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,12 +17368,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>23/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,12 +17368,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,12 +17368,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Constructora Carran S.A.</t>
+          <t>Constructora Carran S.A...</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Constructora Carran S.A.</t>
+          <t>Constructora Carran S.A...</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,12 +17368,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Planta Solar La Puntilla S.pA.</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10964,12 +10964,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17320,12 +17320,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,12 +17368,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -14839,7 +14839,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F302" t="n">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>Energía Renovable Champa SpA</t>
         </is>
       </c>
       <c r="F30" t="n">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17368,12 +17368,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,12 +17416,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12116,12 +12116,12 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17368,12 +17368,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,12 +17416,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17416,12 +17416,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,12 +17464,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12164,12 +12164,12 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -17416,12 +17416,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,12 +17464,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17191,7 +17191,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -17464,12 +17464,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/02/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17464,12 +17464,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17464,12 +17464,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17464,12 +17464,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17464,12 +17464,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12199,11 +12199,11 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12212,12 +12212,12 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15458,16 +15458,16 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -17464,12 +17464,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F32" t="n">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/05/2023</t>
+          <t>11/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15506,16 +15506,16 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -17512,12 +17512,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -17527,7 +17527,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>22/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -7960,26 +7960,26 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Áridos del Guayas S.A</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>250</v>
+        <v>130000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,26 +8008,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Áridos del Guayas S.A</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>130000</v>
+        <v>250</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -7960,26 +7960,26 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Áridos del Guayas S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>130000</v>
+        <v>250</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,26 +8008,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Áridos del Guayas S.A</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>130000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7960,26 +7960,26 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Áridos del Guayas S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>130000</v>
+        <v>250</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,26 +8008,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Áridos del Guayas S.A</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>130000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12308,12 +12308,12 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17560,12 +17560,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -8008,26 +8008,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Áridos del Guayas S.A</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>130000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,26 +8056,26 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Áridos del Guayas S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>130000</v>
+        <v>250</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -8008,26 +8008,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Áridos del Guayas S.A</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>130000</v>
+        <v>250</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,26 +8056,26 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Acotamiento de la actividad y ampliación de la superficie efectiva de extracción de áridos dentro del predio del Pozo el Huite, con el fin de mitigar sus impactos ambientales</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Áridos del Guayas S.A</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>250</v>
+        <v>130000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5150292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J402"/>
+  <dimension ref="A1:J404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19666,6 +19666,94 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>22222</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>0</v>
+      </c>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129296257&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Buin</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>PRUEBA SEPTIEMBRE 2014</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>0</v>
+      </c>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129788649&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Buin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11924,12 +11924,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>EXTRACCION DE ARIDOS EN EL RIO MAIPO RIBERA SUR, CONCESIÓNES KM 2,3 AL 3,3 y 4,3 AL 4,65 AGUAS ARRIBA PUENTE MAIPO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11972,12 +11972,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3016521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
+          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
+          <t>Frutauco S.A</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12356,12 +12356,12 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Disposición de las Aguas Residuales Industriales de FRUTAUCO, para el Riego Ornamental en los jardines de FRUTAUCO (e-seia)</t>
+          <t>EXTRACCIÓN DE ARIDOS EN CAUCE DEL RÍO MAIPO, DEL KILOMETRO 3,3 AL 4,3 AGUAS ARRIBA PUENTE MAIPO, COMUNA DE BUIN (e-seia)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Frutauco S.A</t>
+          <t>CONSTRUCTORA AGUA SANTA S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12404,12 +12404,12 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2744279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2745163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>72</v>
+        <v>28659</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ampliación Planta Buin Envases Impresos S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>28659</v>
+        <v>72</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1172985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>200</v>
+        <v>6820</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Buin - Maipo (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>6820</v>
+        <v>200</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17608,12 +17608,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
+          <t>Villorrio Agrícola Esperanza I</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Villorrio Agrícola Esperanza I</t>
+          <t>Análisis Integrado Plan Intercomunal Talagante-Melipilla Buin Paine</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Comité Habitacional Esperanza I, Valdivia de Paine</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">

--- a/data/Buin.xlsx
+++ b/data/Buin.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>Energia Renovable Rucapaine Spa.</t>
         </is>
       </c>
       <c r="F23" t="n">
